--- a/RC/TA02/metricas_centralidad.xlsx
+++ b/RC/TA02/metricas_centralidad.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596fbcbe96d6cc56/Proyectos/2 Maestria/DS_MG_UPC/RC/TA02/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED097B4E1AE12C4CA6756607A74184BCFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ADF329-D3CF-49D2-8D4A-815A51BE8029}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +254,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -326,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -360,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,14 +551,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,15 +580,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C2">
-        <v>0.05442176870748299</v>
+        <v>5.4421768707482991E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -576,15 +597,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C3">
-        <v>0.003401360544217687</v>
+        <v>3.4013605442176869E-3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -593,15 +614,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C4">
-        <v>0.008503401360544217</v>
+        <v>8.5034013605442167E-3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -610,15 +631,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C5">
-        <v>0.003401360544217687</v>
+        <v>3.4013605442176869E-3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -627,12 +648,12 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C6">
         <v>0.1105442176870748</v>
@@ -644,15 +665,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C7">
-        <v>0.004251700680272108</v>
+        <v>4.2517006802721084E-3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -661,15 +682,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C8">
-        <v>0.07993197278911564</v>
+        <v>7.9931972789115638E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -678,15 +699,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C9">
-        <v>0.03443877551020408</v>
+        <v>3.4438775510204078E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -695,15 +716,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C10">
-        <v>0.1135204081632653</v>
+        <v>0.11352040816326529</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -712,15 +733,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C11">
-        <v>0.02125850340136054</v>
+        <v>2.125850340136054E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -729,15 +750,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C12">
-        <v>0.02295918367346939</v>
+        <v>2.2959183673469389E-2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -746,15 +767,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C13">
-        <v>0.001700680272108843</v>
+        <v>1.700680272108843E-3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -763,15 +784,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C14">
-        <v>0.001700680272108843</v>
+        <v>1.700680272108843E-3</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -780,15 +801,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C15">
-        <v>0.005952380952380952</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -797,15 +818,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C16">
-        <v>0.02636054421768707</v>
+        <v>2.6360544217687069E-2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -814,15 +835,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C17">
-        <v>0.07185374149659864</v>
+        <v>7.1853741496598636E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -831,15 +852,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C18">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -848,15 +869,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C19">
-        <v>0.0008503401360544217</v>
+        <v>8.5034013605442174E-4</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -865,15 +886,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C20">
-        <v>0.002551020408163265</v>
+        <v>2.5510204081632651E-3</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -882,15 +903,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C21">
-        <v>0.009353741496598639</v>
+        <v>9.3537414965986394E-3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -899,15 +920,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C22">
-        <v>0.04081632653061224</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -916,15 +937,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C23">
-        <v>0.0586734693877551</v>
+        <v>5.8673469387755098E-2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -933,12 +954,12 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C24">
         <v>0.1496598639455782</v>
@@ -950,15 +971,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C25">
-        <v>0.01445578231292517</v>
+        <v>1.4455782312925171E-2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -967,15 +988,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C26">
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -984,15 +1005,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C27">
-        <v>0.0195578231292517</v>
+        <v>1.9557823129251702E-2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1001,12 +1022,12 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1018,15 +1039,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C29">
-        <v>0.01275510204081633</v>
+        <v>1.275510204081633E-2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1035,15 +1056,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C30">
-        <v>0.1530612244897959</v>
+        <v>0.15306122448979589</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1052,15 +1073,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C31">
-        <v>0.02976190476190476</v>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1069,15 +1090,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C32">
-        <v>0.05272108843537415</v>
+        <v>5.2721088435374153E-2</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1086,15 +1107,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C33">
-        <v>0.005952380952380952</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1103,15 +1124,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C34">
-        <v>0.002551020408163265</v>
+        <v>2.5510204081632651E-3</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1120,15 +1141,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C35">
-        <v>0.03061224489795918</v>
+        <v>3.0612244897959179E-2</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1137,15 +1158,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C36">
-        <v>0.01232993197278912</v>
+        <v>1.2329931972789121E-2</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1154,15 +1175,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C37">
-        <v>0.1755952380952381</v>
+        <v>0.17559523809523811</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1171,15 +1192,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C38">
-        <v>0.01445578231292517</v>
+        <v>1.4455782312925171E-2</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1188,15 +1209,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C39">
-        <v>0.0119047619047619</v>
+        <v>1.1904761904761901E-2</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1205,15 +1226,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C40">
-        <v>0.01870748299319728</v>
+        <v>1.8707482993197279E-2</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1222,15 +1243,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C41">
-        <v>0.04251700680272109</v>
+        <v>4.2517006802721087E-2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1239,15 +1260,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C42">
-        <v>0.03741496598639456</v>
+        <v>3.7414965986394558E-2</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1256,15 +1277,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C43">
-        <v>0.003401360544217687</v>
+        <v>3.4013605442176869E-3</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1273,15 +1294,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C44">
-        <v>0.1641156462585034</v>
+        <v>0.16411564625850339</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1290,15 +1311,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C45">
-        <v>0.02551020408163265</v>
+        <v>2.551020408163265E-2</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1307,15 +1328,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C46">
-        <v>0.03273809523809524</v>
+        <v>3.273809523809524E-2</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1324,15 +1345,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C47">
-        <v>0.06972789115646258</v>
+        <v>6.9727891156462579E-2</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1341,15 +1362,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C48">
-        <v>0.04846938775510204</v>
+        <v>4.8469387755102039E-2</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1358,15 +1379,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C49">
-        <v>0.01105442176870748</v>
+        <v>1.105442176870748E-2</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1375,12 +1396,12 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C50">
         <v>0.1598639455782313</v>
@@ -1392,15 +1413,15 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C51">
-        <v>0.06377551020408163</v>
+        <v>6.3775510204081634E-2</v>
       </c>
       <c r="D51">
         <v>1</v>
